--- a/notas_raspadas.xlsx
+++ b/notas_raspadas.xlsx
@@ -13,13 +13,17 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$86</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="75">
   <si>
     <t>CNPJ</t>
   </si>
@@ -232,6 +236,18 @@
   </si>
   <si>
     <t>Total.Ifood</t>
+  </si>
+  <si>
+    <t>Loja.Fisica</t>
+  </si>
+  <si>
+    <t>Loja.Fisica T</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Diferenca</t>
   </si>
 </sst>
 </file>
@@ -622,10 +638,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J86"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,10 +654,11 @@
     <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,8 +689,14 @@
       <c r="J1" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -701,8 +725,15 @@
         <f>I2*E2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>29.9</v>
+      </c>
+      <c r="L2">
+        <f>K2*E2</f>
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -734,8 +765,15 @@
         <f t="shared" ref="J3:J66" si="0">I3*E3</f>
         <v>4.87</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>4.99</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L66" si="1">K3*E3</f>
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -767,8 +805,15 @@
         <f t="shared" si="0"/>
         <v>4.87</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>4.99</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -800,8 +845,15 @@
         <f t="shared" si="0"/>
         <v>4.87</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>4.99</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -833,8 +885,15 @@
         <f t="shared" si="0"/>
         <v>4.87</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>4.99</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -866,8 +925,15 @@
         <f t="shared" si="0"/>
         <v>3.21</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>2.89</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -899,8 +965,15 @@
         <f t="shared" si="0"/>
         <v>3.21</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>2.89</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -932,70 +1005,83 @@
         <f t="shared" si="0"/>
         <v>3.21</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="3">
-        <v>39.89</v>
-      </c>
-      <c r="H10" s="3">
-        <v>39.89</v>
-      </c>
-      <c r="I10" s="3"/>
+      <c r="K9">
+        <v>2.89</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>10.25</v>
+      </c>
+      <c r="H10">
+        <v>10.25</v>
+      </c>
       <c r="J10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="H11" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="I11" s="3"/>
+        <f>I10*E10</f>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f>K10*E10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>10.25</v>
+      </c>
+      <c r="H11">
+        <v>10.25</v>
+      </c>
       <c r="J11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I11*E11</f>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f>K11*E11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1006,26 +1092,30 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G12">
-        <v>37.5</v>
+        <v>6.19</v>
       </c>
       <c r="H12">
-        <v>37.5</v>
+        <v>6.19</v>
       </c>
       <c r="J12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I12*E12</f>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f>K12*E12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1036,7 +1126,7 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1045,17 +1135,24 @@
         <v>15</v>
       </c>
       <c r="G13">
-        <v>8.59</v>
+        <v>3.29</v>
       </c>
       <c r="H13">
-        <v>8.59</v>
+        <v>3.29</v>
+      </c>
+      <c r="I13">
+        <v>5.21</v>
       </c>
       <c r="J13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I13*E13</f>
+        <v>5.21</v>
+      </c>
+      <c r="L13">
+        <f>K13*E13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1066,29 +1163,33 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G14">
-        <v>8.99</v>
+        <v>3.29</v>
       </c>
       <c r="H14">
-        <v>8.99</v>
+        <v>3.29</v>
       </c>
       <c r="I14">
-        <v>15.53</v>
+        <v>5.21</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
-        <v>15.53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I14*E14</f>
+        <v>5.21</v>
+      </c>
+      <c r="L14">
+        <f>K14*E14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -1115,11 +1216,18 @@
       </c>
       <c r="I15" s="4"/>
       <c r="J15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I15*E15</f>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="L15">
+        <f>K15*E15</f>
+        <v>19.989999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1130,29 +1238,33 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G16">
-        <v>8.99</v>
+        <v>3.29</v>
       </c>
       <c r="H16">
-        <v>8.99</v>
+        <v>3.29</v>
       </c>
       <c r="I16">
-        <v>15.53</v>
+        <v>5.21</v>
       </c>
       <c r="J16">
-        <f t="shared" si="0"/>
-        <v>15.53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I16*E16</f>
+        <v>5.21</v>
+      </c>
+      <c r="L16">
+        <f>K16*E16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1163,7 +1275,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1172,17 +1284,24 @@
         <v>15</v>
       </c>
       <c r="G17">
-        <v>20.5</v>
+        <v>29.9</v>
       </c>
       <c r="H17">
-        <v>20.5</v>
+        <v>29.9</v>
+      </c>
+      <c r="I17">
+        <v>44.39</v>
       </c>
       <c r="J17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I17*E17</f>
+        <v>44.39</v>
+      </c>
+      <c r="L17">
+        <f>K17*E17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1193,7 +1312,7 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1202,17 +1321,21 @@
         <v>15</v>
       </c>
       <c r="G18">
-        <v>6.79</v>
+        <v>7.55</v>
       </c>
       <c r="H18">
-        <v>6.79</v>
+        <v>7.55</v>
       </c>
       <c r="J18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I18*E18</f>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f>K18*E18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1223,7 +1346,7 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1232,17 +1355,21 @@
         <v>15</v>
       </c>
       <c r="G19">
-        <v>6.79</v>
+        <v>7.55</v>
       </c>
       <c r="H19">
-        <v>6.79</v>
+        <v>7.55</v>
       </c>
       <c r="J19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I19*E19</f>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f>K19*E19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1253,26 +1380,30 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G20">
-        <v>25.5</v>
+        <v>8.35</v>
       </c>
       <c r="H20">
-        <v>25.5</v>
+        <v>8.35</v>
       </c>
       <c r="J20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I20*E20</f>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f>K20*E20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1301,11 +1432,18 @@
         <v>9.42</v>
       </c>
       <c r="J21">
-        <f t="shared" si="0"/>
+        <f>I21*E21</f>
         <v>9.42</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>8.49</v>
+      </c>
+      <c r="L21">
+        <f>K21*E21</f>
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1334,11 +1472,18 @@
         <v>9.42</v>
       </c>
       <c r="J22">
-        <f t="shared" si="0"/>
+        <f>I22*E22</f>
         <v>9.42</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>8.49</v>
+      </c>
+      <c r="L22">
+        <f>K22*E22</f>
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1364,11 +1509,18 @@
         <v>13.15</v>
       </c>
       <c r="J23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I23*E23</f>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>12</v>
+      </c>
+      <c r="L23">
+        <f>K23*E23</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1379,7 +1531,7 @@
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1388,17 +1540,21 @@
         <v>15</v>
       </c>
       <c r="G24">
-        <v>6.05</v>
+        <v>5.99</v>
       </c>
       <c r="H24">
-        <v>6.05</v>
+        <v>5.99</v>
       </c>
       <c r="J24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I24*E24</f>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f>K24*E24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1409,26 +1565,33 @@
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G25">
-        <v>27</v>
+        <v>8.99</v>
       </c>
       <c r="H25">
-        <v>27</v>
+        <v>8.99</v>
+      </c>
+      <c r="I25">
+        <v>15.53</v>
       </c>
       <c r="J25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I25*E25</f>
+        <v>15.53</v>
+      </c>
+      <c r="L25">
+        <f>K25*E25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1439,26 +1602,33 @@
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G26">
-        <v>12.7</v>
+        <v>8.99</v>
       </c>
       <c r="H26">
-        <v>12.7</v>
+        <v>8.99</v>
+      </c>
+      <c r="I26">
+        <v>15.53</v>
       </c>
       <c r="J26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I26*E26</f>
+        <v>15.53</v>
+      </c>
+      <c r="L26">
+        <f>K26*E26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1487,11 +1657,18 @@
         <v>5.21</v>
       </c>
       <c r="J27">
-        <f t="shared" si="0"/>
+        <f>I27*E27</f>
         <v>5.21</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <v>4.79</v>
+      </c>
+      <c r="L27">
+        <f>K27*E27</f>
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1517,11 +1694,18 @@
         <v>13.2</v>
       </c>
       <c r="J28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I28*E28</f>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>12.99</v>
+      </c>
+      <c r="L28">
+        <f>K28*E28</f>
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1547,11 +1731,18 @@
         <v>13.2</v>
       </c>
       <c r="J29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I29*E29</f>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>12.99</v>
+      </c>
+      <c r="L29">
+        <f>K29*E29</f>
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1580,11 +1771,18 @@
         <v>5.54</v>
       </c>
       <c r="J30">
-        <f t="shared" si="0"/>
+        <f>I30*E30</f>
         <v>5.54</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>3.49</v>
+      </c>
+      <c r="L30">
+        <f>K30*E30</f>
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1613,11 +1811,18 @@
         <v>5.54</v>
       </c>
       <c r="J31">
-        <f t="shared" si="0"/>
+        <f>I31*E31</f>
         <v>5.54</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>3.49</v>
+      </c>
+      <c r="L31">
+        <f>K31*E31</f>
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1646,11 +1851,18 @@
         <v>12.2</v>
       </c>
       <c r="J32">
-        <f t="shared" si="0"/>
+        <f>I32*E32</f>
         <v>12.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>9.99</v>
+      </c>
+      <c r="L32">
+        <f>K32*E32</f>
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1679,11 +1891,18 @@
         <v>3.32</v>
       </c>
       <c r="J33">
-        <f t="shared" si="0"/>
+        <f>I33*E33</f>
         <v>3.32</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>2.99</v>
+      </c>
+      <c r="L33">
+        <f>K33*E33</f>
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1712,11 +1931,18 @@
         <v>3.32</v>
       </c>
       <c r="J34">
-        <f t="shared" si="0"/>
+        <f>I34*E34</f>
         <v>3.32</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <v>2.99</v>
+      </c>
+      <c r="L34">
+        <f>K34*E34</f>
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1745,11 +1971,18 @@
         <v>3.32</v>
       </c>
       <c r="J35">
-        <f t="shared" si="0"/>
+        <f>I35*E35</f>
         <v>3.32</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <v>2.99</v>
+      </c>
+      <c r="L35">
+        <f>K35*E35</f>
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1778,11 +2011,18 @@
         <v>3.32</v>
       </c>
       <c r="J36">
-        <f t="shared" si="0"/>
+        <f>I36*E36</f>
         <v>3.32</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <v>2.99</v>
+      </c>
+      <c r="L36">
+        <f>K36*E36</f>
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -1811,11 +2051,18 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="J37">
-        <f t="shared" si="0"/>
+        <f>I37*E37</f>
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <v>3.69</v>
+      </c>
+      <c r="L37">
+        <f>K37*E37</f>
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1844,11 +2091,18 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="J38">
-        <f t="shared" si="0"/>
+        <f>I38*E38</f>
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <v>3.69</v>
+      </c>
+      <c r="L38">
+        <f>K38*E38</f>
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -1877,11 +2131,18 @@
         <v>4.43</v>
       </c>
       <c r="J39">
-        <f t="shared" si="0"/>
+        <f>I39*E39</f>
         <v>4.43</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <v>3.99</v>
+      </c>
+      <c r="L39">
+        <f>K39*E39</f>
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -1910,11 +2171,18 @@
         <v>4.43</v>
       </c>
       <c r="J40">
-        <f t="shared" si="0"/>
+        <f>I40*E40</f>
         <v>4.43</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <v>3.99</v>
+      </c>
+      <c r="L40">
+        <f>K40*E40</f>
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -1943,11 +2211,18 @@
         <v>14.2</v>
       </c>
       <c r="J41">
-        <f t="shared" si="0"/>
+        <f>I41*E41</f>
         <v>14.2</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <v>12.79</v>
+      </c>
+      <c r="L41">
+        <f>K41*E41</f>
+        <v>12.79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -1976,11 +2251,18 @@
         <v>14.2</v>
       </c>
       <c r="J42">
-        <f t="shared" si="0"/>
+        <f>I42*E42</f>
         <v>14.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <v>12.79</v>
+      </c>
+      <c r="L42">
+        <f>K42*E42</f>
+        <v>12.79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -2009,11 +2291,18 @@
         <v>14.2</v>
       </c>
       <c r="J43">
-        <f t="shared" si="0"/>
+        <f>I43*E43</f>
         <v>14.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <v>12.79</v>
+      </c>
+      <c r="L43">
+        <f>K43*E43</f>
+        <v>12.79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -2024,26 +2313,30 @@
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G44">
-        <v>5.99</v>
+        <v>12.7</v>
       </c>
       <c r="H44">
-        <v>5.99</v>
+        <v>12.7</v>
       </c>
       <c r="J44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I44*E44</f>
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <f>K44*E44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2069,11 +2362,18 @@
         <v>11.8</v>
       </c>
       <c r="J45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I45*E45</f>
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="L45">
+        <f>K45*E45</f>
+        <v>19.989999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -2102,11 +2402,18 @@
         <v>16.739999999999998</v>
       </c>
       <c r="J46">
-        <f t="shared" si="0"/>
+        <f>I46*E46</f>
         <v>16.739999999999998</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <v>14.69</v>
+      </c>
+      <c r="L46">
+        <f>K46*E46</f>
+        <v>14.69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -2132,11 +2439,18 @@
         <v>13.79</v>
       </c>
       <c r="J47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I47*E47</f>
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>11.99</v>
+      </c>
+      <c r="L47">
+        <f>K47*E47</f>
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -2147,92 +2461,98 @@
         <v>10</v>
       </c>
       <c r="D48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48">
+        <v>8.59</v>
+      </c>
+      <c r="H48">
+        <v>8.59</v>
+      </c>
+      <c r="J48">
+        <f>I48*E48</f>
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <f>K48*E48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49">
+        <v>20.5</v>
+      </c>
+      <c r="H49">
+        <v>20.5</v>
+      </c>
+      <c r="J49">
+        <f>I49*E49</f>
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <f>K49*E49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
         <v>47</v>
       </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48">
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50">
         <v>8.5</v>
       </c>
-      <c r="H48">
+      <c r="H50">
         <v>8.5</v>
       </c>
-      <c r="J48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" t="s">
-        <v>41</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49">
-        <v>7.1</v>
-      </c>
-      <c r="H49">
-        <v>7.1</v>
-      </c>
-      <c r="I49">
-        <v>14.2</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="0"/>
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" t="s">
-        <v>48</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50">
-        <v>7.1</v>
-      </c>
-      <c r="H50">
-        <v>7.1</v>
-      </c>
-      <c r="I50">
-        <v>14.2</v>
-      </c>
       <c r="J50">
-        <f t="shared" si="0"/>
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I50*E50</f>
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <f>K50*E50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -2243,7 +2563,7 @@
         <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2252,20 +2572,24 @@
         <v>15</v>
       </c>
       <c r="G51">
-        <v>7.1</v>
+        <v>11.9</v>
       </c>
       <c r="H51">
-        <v>7.1</v>
+        <v>11.9</v>
       </c>
       <c r="I51">
-        <v>14.2</v>
+        <v>16.559999999999999</v>
       </c>
       <c r="J51">
-        <f t="shared" si="0"/>
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I51*E51</f>
+        <v>16.559999999999999</v>
+      </c>
+      <c r="L51">
+        <f>K51*E51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -2276,7 +2600,7 @@
         <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2285,17 +2609,24 @@
         <v>15</v>
       </c>
       <c r="G52">
-        <v>7.55</v>
+        <v>11.9</v>
       </c>
       <c r="H52">
-        <v>7.55</v>
+        <v>11.9</v>
+      </c>
+      <c r="I52">
+        <v>16.559999999999999</v>
       </c>
       <c r="J52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I52*E52</f>
+        <v>16.559999999999999</v>
+      </c>
+      <c r="L52">
+        <f>K52*E52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -2321,71 +2652,88 @@
         <v>12.39</v>
       </c>
       <c r="J53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" t="s">
-        <v>51</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54">
-        <v>8.35</v>
-      </c>
-      <c r="H54">
-        <v>8.35</v>
-      </c>
+        <f>I53*E53</f>
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>12.99</v>
+      </c>
+      <c r="L53">
+        <f>K53*E53</f>
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="H54" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="I54" s="3"/>
       <c r="J54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" t="s">
-        <v>49</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55">
-        <v>7.55</v>
-      </c>
-      <c r="H55">
-        <v>7.55</v>
-      </c>
+        <f>I54*E54</f>
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <f>K54*E54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="3">
+        <v>39.89</v>
+      </c>
+      <c r="H55" s="3">
+        <v>39.89</v>
+      </c>
+      <c r="I55" s="3"/>
       <c r="J55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I55*E55</f>
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <f>K55*E55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -2410,12 +2758,22 @@
       <c r="H56">
         <v>7</v>
       </c>
+      <c r="I56">
+        <v>7.2</v>
+      </c>
       <c r="J56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I56*E56</f>
+        <v>7.2</v>
+      </c>
+      <c r="K56">
+        <v>6.49</v>
+      </c>
+      <c r="L56">
+        <f>K56*E56</f>
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -2426,7 +2784,7 @@
         <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2435,17 +2793,21 @@
         <v>12</v>
       </c>
       <c r="G57">
-        <v>10.25</v>
+        <v>4.49</v>
       </c>
       <c r="H57">
-        <v>10.25</v>
+        <v>4.49</v>
       </c>
       <c r="J57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I57*E57</f>
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <f>K57*E57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2456,26 +2818,30 @@
         <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G58">
-        <v>10.25</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="H58">
-        <v>10.25</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="J58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I58*E58</f>
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <f>K58*E58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -2501,11 +2867,18 @@
         <v>3.7</v>
       </c>
       <c r="J59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I59*E59</f>
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>5.99</v>
+      </c>
+      <c r="L59">
+        <f>K59*E59</f>
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -2531,11 +2904,18 @@
         <v>3.7</v>
       </c>
       <c r="J60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I60*E60</f>
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>5.99</v>
+      </c>
+      <c r="L60">
+        <f>K60*E60</f>
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -2561,11 +2941,18 @@
         <v>3.7</v>
       </c>
       <c r="J61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I61*E61</f>
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>5.99</v>
+      </c>
+      <c r="L61">
+        <f>K61*E61</f>
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -2576,26 +2963,30 @@
         <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G62">
-        <v>6.19</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="H62">
-        <v>6.19</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="J62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I62*E62</f>
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <f>K62*E62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -2621,11 +3012,18 @@
         <v>2.59</v>
       </c>
       <c r="J63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I63*E63</f>
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>3.99</v>
+      </c>
+      <c r="L63">
+        <f>K63*E63</f>
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -2636,7 +3034,7 @@
         <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -2645,20 +3043,21 @@
         <v>15</v>
       </c>
       <c r="G64">
-        <v>3.29</v>
+        <v>6.05</v>
       </c>
       <c r="H64">
-        <v>3.29</v>
-      </c>
-      <c r="I64">
-        <v>5.21</v>
+        <v>6.05</v>
       </c>
       <c r="J64">
-        <f t="shared" si="0"/>
-        <v>5.21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I64*E64</f>
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <f>K64*E64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -2669,29 +3068,30 @@
         <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G65">
-        <v>3.29</v>
+        <v>17.2</v>
       </c>
       <c r="H65">
-        <v>3.29</v>
-      </c>
-      <c r="I65">
-        <v>5.21</v>
+        <v>17.2</v>
       </c>
       <c r="J65">
-        <f t="shared" si="0"/>
-        <v>5.21</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I65*E65</f>
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <f>K65*E65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -2702,29 +3102,30 @@
         <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G66">
-        <v>3.29</v>
+        <v>25.5</v>
       </c>
       <c r="H66">
-        <v>3.29</v>
-      </c>
-      <c r="I66">
-        <v>5.21</v>
+        <v>25.5</v>
       </c>
       <c r="J66">
-        <f t="shared" si="0"/>
-        <v>5.21</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I66*E66</f>
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <f>K66*E66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -2735,7 +3136,7 @@
         <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -2744,20 +3145,24 @@
         <v>15</v>
       </c>
       <c r="G67">
-        <v>11.9</v>
+        <v>7.1</v>
       </c>
       <c r="H67">
-        <v>11.9</v>
+        <v>7.1</v>
       </c>
       <c r="I67">
-        <v>16.559999999999999</v>
+        <v>14.2</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J85" si="1">I67*E67</f>
-        <v>16.559999999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I67*E67</f>
+        <v>14.2</v>
+      </c>
+      <c r="L67">
+        <f>K67*E67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -2768,7 +3173,7 @@
         <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -2777,20 +3182,24 @@
         <v>15</v>
       </c>
       <c r="G68">
-        <v>11.9</v>
+        <v>7.1</v>
       </c>
       <c r="H68">
-        <v>11.9</v>
+        <v>7.1</v>
       </c>
       <c r="I68">
-        <v>16.559999999999999</v>
+        <v>14.2</v>
       </c>
       <c r="J68">
-        <f t="shared" si="1"/>
-        <v>16.559999999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I68*E68</f>
+        <v>14.2</v>
+      </c>
+      <c r="L68">
+        <f>K68*E68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -2801,26 +3210,33 @@
         <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G69">
-        <v>8.7899999999999991</v>
+        <v>7.1</v>
       </c>
       <c r="H69">
-        <v>8.7899999999999991</v>
+        <v>7.1</v>
+      </c>
+      <c r="I69">
+        <v>14.2</v>
       </c>
       <c r="J69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I69*E69</f>
+        <v>14.2</v>
+      </c>
+      <c r="L69">
+        <f>K69*E69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -2831,26 +3247,30 @@
         <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G70">
-        <v>8.7899999999999991</v>
+        <v>6.79</v>
       </c>
       <c r="H70">
-        <v>8.7899999999999991</v>
+        <v>6.79</v>
       </c>
       <c r="J70">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I70*E70</f>
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <f>K70*E70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -2876,11 +3296,18 @@
         <v>29.78</v>
       </c>
       <c r="J71">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I71*E71</f>
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>34.99</v>
+      </c>
+      <c r="L71">
+        <f>K71*E71</f>
+        <v>34.99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -2906,11 +3333,18 @@
         <v>29.78</v>
       </c>
       <c r="J72">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I72*E72</f>
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>34.99</v>
+      </c>
+      <c r="L72">
+        <f>K72*E72</f>
+        <v>34.99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -2939,11 +3373,18 @@
         <v>8.8699999999999992</v>
       </c>
       <c r="J73">
-        <f t="shared" si="1"/>
+        <f>I73*E73</f>
         <v>8.8699999999999992</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K73">
+        <v>7.99</v>
+      </c>
+      <c r="L73">
+        <f>K73*E73</f>
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -2972,11 +3413,18 @@
         <v>8.8699999999999992</v>
       </c>
       <c r="J74">
-        <f t="shared" si="1"/>
+        <f>I74*E74</f>
         <v>8.8699999999999992</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74">
+        <v>7.99</v>
+      </c>
+      <c r="L74">
+        <f>K74*E74</f>
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -3005,11 +3453,18 @@
         <v>8.8699999999999992</v>
       </c>
       <c r="J75">
-        <f t="shared" si="1"/>
+        <f>I75*E75</f>
         <v>8.8699999999999992</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75">
+        <v>7.99</v>
+      </c>
+      <c r="L75">
+        <f>K75*E75</f>
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -3038,11 +3493,18 @@
         <v>8.8699999999999992</v>
       </c>
       <c r="J76">
-        <f t="shared" si="1"/>
+        <f>I76*E76</f>
         <v>8.8699999999999992</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76">
+        <v>7.99</v>
+      </c>
+      <c r="L76">
+        <f>K76*E76</f>
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -3071,11 +3533,18 @@
         <v>17.75</v>
       </c>
       <c r="J77">
-        <f t="shared" si="1"/>
+        <f>I77*E77</f>
         <v>17.75</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77">
+        <v>15.99</v>
+      </c>
+      <c r="L77">
+        <f>K77*E77</f>
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -3104,11 +3573,18 @@
         <v>17.75</v>
       </c>
       <c r="J78">
-        <f t="shared" si="1"/>
+        <f>I78*E78</f>
         <v>17.75</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78">
+        <v>15.99</v>
+      </c>
+      <c r="L78">
+        <f>K78*E78</f>
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -3134,11 +3610,18 @@
         <v>8.59</v>
       </c>
       <c r="J79">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I79*E79</f>
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="L79">
+        <f>K79*E79</f>
+        <v>9.9700000000000006</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -3149,26 +3632,30 @@
         <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="E80">
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G80">
-        <v>4.49</v>
+        <v>6.79</v>
       </c>
       <c r="H80">
-        <v>4.49</v>
+        <v>6.79</v>
       </c>
       <c r="J80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I80*E80</f>
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <f>K80*E80</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -3179,56 +3666,64 @@
         <v>10</v>
       </c>
       <c r="D81" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81">
+        <v>37.5</v>
+      </c>
+      <c r="H81">
+        <v>37.5</v>
+      </c>
+      <c r="J81">
+        <f>I81*E81</f>
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <f>K81*E81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" t="s">
         <v>31</v>
       </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81" t="s">
-        <v>15</v>
-      </c>
-      <c r="G81">
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>15</v>
+      </c>
+      <c r="G82">
         <v>27</v>
       </c>
-      <c r="H81">
+      <c r="H82">
         <v>27</v>
       </c>
-      <c r="J81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>8</v>
-      </c>
-      <c r="B82" t="s">
-        <v>9</v>
-      </c>
-      <c r="C82" t="s">
-        <v>10</v>
-      </c>
-      <c r="D82" t="s">
-        <v>65</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="F82" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82">
-        <v>17.2</v>
-      </c>
-      <c r="H82">
-        <v>17.2</v>
-      </c>
       <c r="J82">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I82*E82</f>
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <f>K82*E82</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -3257,11 +3752,18 @@
         <v>18.760000000000002</v>
       </c>
       <c r="J83">
-        <f t="shared" si="1"/>
+        <f>I83*E83</f>
         <v>18.760000000000002</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="L83">
+        <f>K83*E83</f>
+        <v>16.989999999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -3290,11 +3792,18 @@
         <v>7.76</v>
       </c>
       <c r="J84">
-        <f t="shared" si="1"/>
+        <f>I84*E84</f>
         <v>93.12</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84">
+        <v>6.99</v>
+      </c>
+      <c r="L84">
+        <f>K84*E84</f>
+        <v>83.88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -3305,7 +3814,7 @@
         <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -3314,35 +3823,1897 @@
         <v>15</v>
       </c>
       <c r="G85">
-        <v>29.9</v>
+        <v>27</v>
       </c>
       <c r="H85">
-        <v>29.9</v>
-      </c>
-      <c r="I85">
-        <v>44.39</v>
+        <v>27</v>
       </c>
       <c r="J85">
-        <f t="shared" si="1"/>
-        <v>44.39</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+        <f>I85*E85</f>
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <f>K85*E85</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="H86">
         <f>SUM(H2:H85)</f>
-        <v>891.86000000000024</v>
+        <v>891.8599999999999</v>
       </c>
       <c r="I86">
         <f>SUM(I2:I85)</f>
-        <v>430.41999999999996</v>
+        <v>437.61999999999989</v>
       </c>
       <c r="J86">
         <f>SUM(J2:J85)</f>
-        <v>515.78</v>
+        <v>522.9799999999999</v>
+      </c>
+      <c r="L86">
+        <f>SUM(L2:L85)</f>
+        <v>553.80000000000018</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L86">
+    <filterColumn colId="11">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A10:L85">
+      <sortCondition ref="D1:D86"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>21.9</v>
+      </c>
+      <c r="H2">
+        <v>21.9</v>
+      </c>
+      <c r="I2">
+        <v>29.9</v>
+      </c>
+      <c r="J2">
+        <v>29.9</v>
+      </c>
+      <c r="K2">
+        <f>J2-H2</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>3.49</v>
+      </c>
+      <c r="H3">
+        <v>3.49</v>
+      </c>
+      <c r="I3">
+        <v>4.99</v>
+      </c>
+      <c r="J3">
+        <v>4.99</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K45" si="0">J3-H3</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>3.49</v>
+      </c>
+      <c r="H4">
+        <v>3.49</v>
+      </c>
+      <c r="I4">
+        <v>4.99</v>
+      </c>
+      <c r="J4">
+        <v>4.99</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>3.49</v>
+      </c>
+      <c r="H5">
+        <v>3.49</v>
+      </c>
+      <c r="I5">
+        <v>4.99</v>
+      </c>
+      <c r="J5">
+        <v>4.99</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>3.49</v>
+      </c>
+      <c r="H6">
+        <v>3.49</v>
+      </c>
+      <c r="I6">
+        <v>4.99</v>
+      </c>
+      <c r="J6">
+        <v>4.99</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>1.99</v>
+      </c>
+      <c r="H7">
+        <v>1.99</v>
+      </c>
+      <c r="I7">
+        <v>2.89</v>
+      </c>
+      <c r="J7">
+        <v>2.89</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0.90000000000000013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>1.99</v>
+      </c>
+      <c r="H8">
+        <v>1.99</v>
+      </c>
+      <c r="I8">
+        <v>2.89</v>
+      </c>
+      <c r="J8">
+        <v>2.89</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0.90000000000000013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>1.99</v>
+      </c>
+      <c r="H9">
+        <v>1.99</v>
+      </c>
+      <c r="I9">
+        <v>2.89</v>
+      </c>
+      <c r="J9">
+        <v>2.89</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0.90000000000000013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="4">
+        <v>24.9</v>
+      </c>
+      <c r="H10" s="4">
+        <v>24.9</v>
+      </c>
+      <c r="I10">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="J10">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>-4.91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>3.99</v>
+      </c>
+      <c r="H11">
+        <v>3.99</v>
+      </c>
+      <c r="I11">
+        <v>8.49</v>
+      </c>
+      <c r="J11">
+        <v>8.49</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>3.99</v>
+      </c>
+      <c r="H12">
+        <v>3.99</v>
+      </c>
+      <c r="I12">
+        <v>8.49</v>
+      </c>
+      <c r="J12">
+        <v>8.49</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>13.15</v>
+      </c>
+      <c r="H13">
+        <v>13.15</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="J13">
+        <v>12</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>-1.1500000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>3.89</v>
+      </c>
+      <c r="H14">
+        <v>3.89</v>
+      </c>
+      <c r="I14">
+        <v>4.79</v>
+      </c>
+      <c r="J14">
+        <v>4.79</v>
+      </c>
+      <c r="K14">
+        <f>J14-H14</f>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>13.2</v>
+      </c>
+      <c r="H15">
+        <v>13.2</v>
+      </c>
+      <c r="I15">
+        <v>12.99</v>
+      </c>
+      <c r="J15">
+        <v>12.99</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>-0.20999999999999908</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>13.2</v>
+      </c>
+      <c r="H16">
+        <v>13.2</v>
+      </c>
+      <c r="I16">
+        <v>12.99</v>
+      </c>
+      <c r="J16">
+        <v>12.99</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>-0.20999999999999908</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>3.85</v>
+      </c>
+      <c r="H17">
+        <v>3.85</v>
+      </c>
+      <c r="I17">
+        <v>3.49</v>
+      </c>
+      <c r="J17">
+        <v>3.49</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>-0.35999999999999988</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>3.85</v>
+      </c>
+      <c r="H18">
+        <v>3.85</v>
+      </c>
+      <c r="I18">
+        <v>3.49</v>
+      </c>
+      <c r="J18">
+        <v>3.49</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>-0.35999999999999988</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>9.99</v>
+      </c>
+      <c r="J19">
+        <v>9.99</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999997868E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20">
+        <v>3.35</v>
+      </c>
+      <c r="H20">
+        <v>3.35</v>
+      </c>
+      <c r="I20">
+        <v>2.99</v>
+      </c>
+      <c r="J20">
+        <v>2.99</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>-0.35999999999999988</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>3.35</v>
+      </c>
+      <c r="H21">
+        <v>3.35</v>
+      </c>
+      <c r="I21">
+        <v>2.99</v>
+      </c>
+      <c r="J21">
+        <v>2.99</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>-0.35999999999999988</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22">
+        <v>3.35</v>
+      </c>
+      <c r="H22">
+        <v>3.35</v>
+      </c>
+      <c r="I22">
+        <v>2.99</v>
+      </c>
+      <c r="J22">
+        <v>2.99</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>-0.35999999999999988</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <v>3.35</v>
+      </c>
+      <c r="H23">
+        <v>3.35</v>
+      </c>
+      <c r="I23">
+        <v>2.99</v>
+      </c>
+      <c r="J23">
+        <v>2.99</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>-0.35999999999999988</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24">
+        <v>3.35</v>
+      </c>
+      <c r="H24">
+        <v>3.35</v>
+      </c>
+      <c r="I24">
+        <v>3.69</v>
+      </c>
+      <c r="J24">
+        <v>3.69</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>0.33999999999999986</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25">
+        <v>3.35</v>
+      </c>
+      <c r="H25">
+        <v>3.35</v>
+      </c>
+      <c r="I25">
+        <v>3.69</v>
+      </c>
+      <c r="J25">
+        <v>3.69</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>0.33999999999999986</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>3.25</v>
+      </c>
+      <c r="H26">
+        <v>3.25</v>
+      </c>
+      <c r="I26">
+        <v>3.99</v>
+      </c>
+      <c r="J26">
+        <v>3.99</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>0.74000000000000021</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27">
+        <v>3.25</v>
+      </c>
+      <c r="H27">
+        <v>3.25</v>
+      </c>
+      <c r="I27">
+        <v>3.99</v>
+      </c>
+      <c r="J27">
+        <v>3.99</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>0.74000000000000021</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28">
+        <v>7.1</v>
+      </c>
+      <c r="H28">
+        <v>7.1</v>
+      </c>
+      <c r="I28">
+        <v>12.79</v>
+      </c>
+      <c r="J28">
+        <v>12.79</v>
+      </c>
+      <c r="K28">
+        <f>J28-H28</f>
+        <v>5.6899999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29">
+        <v>7.1</v>
+      </c>
+      <c r="H29">
+        <v>7.1</v>
+      </c>
+      <c r="I29">
+        <v>12.79</v>
+      </c>
+      <c r="J29">
+        <v>12.79</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>5.6899999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30">
+        <v>7.1</v>
+      </c>
+      <c r="H30">
+        <v>7.1</v>
+      </c>
+      <c r="I30">
+        <v>12.79</v>
+      </c>
+      <c r="J30">
+        <v>12.79</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>5.6899999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31">
+        <v>11.8</v>
+      </c>
+      <c r="H31">
+        <v>11.8</v>
+      </c>
+      <c r="I31">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="J31">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>8.1899999999999977</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32">
+        <v>12.6</v>
+      </c>
+      <c r="H32">
+        <v>12.6</v>
+      </c>
+      <c r="I32">
+        <v>14.69</v>
+      </c>
+      <c r="J32">
+        <v>14.69</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33">
+        <v>13.79</v>
+      </c>
+      <c r="H33">
+        <v>13.79</v>
+      </c>
+      <c r="I33">
+        <v>11.99</v>
+      </c>
+      <c r="J33">
+        <v>11.99</v>
+      </c>
+      <c r="K33">
+        <f>J33-H33</f>
+        <v>-1.7999999999999989</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34">
+        <v>12.39</v>
+      </c>
+      <c r="H34">
+        <v>12.39</v>
+      </c>
+      <c r="I34">
+        <v>12.99</v>
+      </c>
+      <c r="J34">
+        <v>12.99</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>0.59999999999999964</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35">
+        <v>7</v>
+      </c>
+      <c r="H35">
+        <v>7</v>
+      </c>
+      <c r="I35">
+        <v>6.49</v>
+      </c>
+      <c r="J35">
+        <v>6.49</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>-0.50999999999999979</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36">
+        <v>3.7</v>
+      </c>
+      <c r="H36">
+        <v>3.7</v>
+      </c>
+      <c r="I36">
+        <v>5.99</v>
+      </c>
+      <c r="J36">
+        <v>5.99</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="0"/>
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37">
+        <v>3.7</v>
+      </c>
+      <c r="H37">
+        <v>3.7</v>
+      </c>
+      <c r="I37">
+        <v>5.99</v>
+      </c>
+      <c r="J37">
+        <v>5.99</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="0"/>
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38">
+        <v>3.7</v>
+      </c>
+      <c r="H38">
+        <v>3.7</v>
+      </c>
+      <c r="I38">
+        <v>5.99</v>
+      </c>
+      <c r="J38">
+        <v>5.99</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="0"/>
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39">
+        <v>2.59</v>
+      </c>
+      <c r="H39">
+        <v>2.59</v>
+      </c>
+      <c r="I39">
+        <v>3.99</v>
+      </c>
+      <c r="J39">
+        <v>3.99</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="0"/>
+        <v>1.4000000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40">
+        <v>29.78</v>
+      </c>
+      <c r="H40">
+        <v>29.78</v>
+      </c>
+      <c r="I40">
+        <v>34.99</v>
+      </c>
+      <c r="J40">
+        <v>34.99</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="0"/>
+        <v>5.2100000000000009</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41">
+        <v>29.78</v>
+      </c>
+      <c r="H41">
+        <v>29.78</v>
+      </c>
+      <c r="I41">
+        <v>34.99</v>
+      </c>
+      <c r="J41">
+        <v>34.99</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="0"/>
+        <v>5.2100000000000009</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42">
+        <v>5.79</v>
+      </c>
+      <c r="H42">
+        <v>5.79</v>
+      </c>
+      <c r="I42">
+        <v>7.99</v>
+      </c>
+      <c r="J42">
+        <v>7.99</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43">
+        <v>5.79</v>
+      </c>
+      <c r="H43">
+        <v>5.79</v>
+      </c>
+      <c r="I43">
+        <v>7.99</v>
+      </c>
+      <c r="J43">
+        <v>7.99</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44">
+        <v>5.79</v>
+      </c>
+      <c r="H44">
+        <v>5.79</v>
+      </c>
+      <c r="I44">
+        <v>7.99</v>
+      </c>
+      <c r="J44">
+        <v>7.99</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45">
+        <v>5.79</v>
+      </c>
+      <c r="H45">
+        <v>5.79</v>
+      </c>
+      <c r="I45">
+        <v>7.99</v>
+      </c>
+      <c r="J45">
+        <v>7.99</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46">
+        <v>13.9</v>
+      </c>
+      <c r="H46">
+        <v>13.9</v>
+      </c>
+      <c r="I46">
+        <v>15.99</v>
+      </c>
+      <c r="J46">
+        <v>15.99</v>
+      </c>
+      <c r="K46">
+        <f>J46-H46</f>
+        <v>2.09</v>
+      </c>
+      <c r="L46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47">
+        <v>13.9</v>
+      </c>
+      <c r="H47">
+        <v>13.9</v>
+      </c>
+      <c r="I47">
+        <v>15.99</v>
+      </c>
+      <c r="J47">
+        <v>15.99</v>
+      </c>
+      <c r="K47">
+        <f t="shared" ref="K47:K50" si="1">J47-H47</f>
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>45</v>
+      </c>
+      <c r="G48">
+        <v>8.59</v>
+      </c>
+      <c r="H48">
+        <v>8.59</v>
+      </c>
+      <c r="I48">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="J48">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>1.3800000000000008</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49">
+        <v>9.49</v>
+      </c>
+      <c r="H49">
+        <v>9.49</v>
+      </c>
+      <c r="I49">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="J49">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999982</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50">
+        <v>5.89</v>
+      </c>
+      <c r="H50">
+        <v>70.680000000000007</v>
+      </c>
+      <c r="I50">
+        <v>6.99</v>
+      </c>
+      <c r="J50">
+        <v>83.88</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="1"/>
+        <v>13.199999999999989</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <f>SUM(H2:H50)</f>
+        <v>454.29999999999995</v>
+      </c>
+      <c r="J51">
+        <f>SUM(J2:J50)</f>
+        <v>553.80000000000018</v>
+      </c>
+      <c r="K51">
+        <f>J51-H51</f>
+        <v>99.500000000000227</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>
--- a/notas_raspadas.xlsx
+++ b/notas_raspadas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="75">
   <si>
     <t>CNPJ</t>
   </si>
@@ -641,8 +641,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +696,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -733,7 +733,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -762,18 +762,18 @@
         <v>4.87</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J66" si="0">I3*E3</f>
+        <f t="shared" ref="J3:J9" si="0">I3*E3</f>
         <v>4.87</v>
       </c>
       <c r="K3">
         <v>4.99</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L66" si="1">K3*E3</f>
+        <f t="shared" ref="L3:L9" si="1">K3*E3</f>
         <v>4.99</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -813,7 +813,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -853,7 +853,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -893,7 +893,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -933,7 +933,7 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -973,7 +973,7 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1039,15 +1039,15 @@
         <v>10.25</v>
       </c>
       <c r="J10">
-        <f>I10*E10</f>
+        <f t="shared" ref="J10:J41" si="2">I10*E10</f>
         <v>0</v>
       </c>
       <c r="L10">
-        <f>K10*E10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" ref="L10:L41" si="3">K10*E10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1073,15 +1073,15 @@
         <v>10.25</v>
       </c>
       <c r="J11">
-        <f>I11*E11</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L11">
-        <f>K11*E11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1107,15 +1107,15 @@
         <v>6.19</v>
       </c>
       <c r="J12">
-        <f>I12*E12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L12">
-        <f>K12*E12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1144,15 +1144,15 @@
         <v>5.21</v>
       </c>
       <c r="J13">
-        <f>I13*E13</f>
+        <f t="shared" si="2"/>
         <v>5.21</v>
       </c>
       <c r="L13">
-        <f>K13*E13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1181,15 +1181,15 @@
         <v>5.21</v>
       </c>
       <c r="J14">
-        <f>I14*E14</f>
+        <f t="shared" si="2"/>
         <v>5.21</v>
       </c>
       <c r="L14">
-        <f>K14*E14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -1216,18 +1216,18 @@
       </c>
       <c r="I15" s="4"/>
       <c r="J15">
-        <f>I15*E15</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K15">
         <v>19.989999999999998</v>
       </c>
       <c r="L15">
-        <f>K15*E15</f>
+        <f t="shared" si="3"/>
         <v>19.989999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1256,11 +1256,11 @@
         <v>5.21</v>
       </c>
       <c r="J16">
-        <f>I16*E16</f>
+        <f t="shared" si="2"/>
         <v>5.21</v>
       </c>
       <c r="L16">
-        <f>K16*E16</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1293,12 +1293,15 @@
         <v>44.39</v>
       </c>
       <c r="J17">
-        <f>I17*E17</f>
+        <f t="shared" si="2"/>
         <v>44.39</v>
       </c>
+      <c r="K17">
+        <v>39.99</v>
+      </c>
       <c r="L17">
-        <f>K17*E17</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>39.99</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1327,12 +1330,15 @@
         <v>7.55</v>
       </c>
       <c r="J18">
-        <f>I18*E18</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>6.97</v>
       </c>
       <c r="L18">
-        <f>K18*E18</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>6.97</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1361,15 +1367,18 @@
         <v>7.55</v>
       </c>
       <c r="J19">
-        <f>I19*E19</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>6.97</v>
       </c>
       <c r="L19">
-        <f>K19*E19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1395,15 +1404,15 @@
         <v>8.35</v>
       </c>
       <c r="J20">
-        <f>I20*E20</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L20">
-        <f>K20*E20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1432,18 +1441,18 @@
         <v>9.42</v>
       </c>
       <c r="J21">
-        <f>I21*E21</f>
+        <f t="shared" si="2"/>
         <v>9.42</v>
       </c>
       <c r="K21">
         <v>8.49</v>
       </c>
       <c r="L21">
-        <f>K21*E21</f>
+        <f t="shared" si="3"/>
         <v>8.49</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1472,18 +1481,18 @@
         <v>9.42</v>
       </c>
       <c r="J22">
-        <f>I22*E22</f>
+        <f t="shared" si="2"/>
         <v>9.42</v>
       </c>
       <c r="K22">
         <v>8.49</v>
       </c>
       <c r="L22">
-        <f>K22*E22</f>
+        <f t="shared" si="3"/>
         <v>8.49</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1509,18 +1518,18 @@
         <v>13.15</v>
       </c>
       <c r="J23">
-        <f>I23*E23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K23">
         <v>12</v>
       </c>
       <c r="L23">
-        <f>K23*E23</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1546,11 +1555,11 @@
         <v>5.99</v>
       </c>
       <c r="J24">
-        <f>I24*E24</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L24">
-        <f>K24*E24</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1583,15 +1592,18 @@
         <v>15.53</v>
       </c>
       <c r="J25">
-        <f>I25*E25</f>
+        <f t="shared" si="2"/>
         <v>15.53</v>
       </c>
+      <c r="K25">
+        <v>13.99</v>
+      </c>
       <c r="L25">
-        <f>K25*E25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1620,15 +1632,15 @@
         <v>15.53</v>
       </c>
       <c r="J26">
-        <f>I26*E26</f>
+        <f t="shared" si="2"/>
         <v>15.53</v>
       </c>
       <c r="L26">
-        <f>K26*E26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1657,18 +1669,18 @@
         <v>5.21</v>
       </c>
       <c r="J27">
-        <f>I27*E27</f>
+        <f t="shared" si="2"/>
         <v>5.21</v>
       </c>
       <c r="K27">
         <v>4.79</v>
       </c>
       <c r="L27">
-        <f>K27*E27</f>
+        <f t="shared" si="3"/>
         <v>4.79</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1694,18 +1706,18 @@
         <v>13.2</v>
       </c>
       <c r="J28">
-        <f>I28*E28</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K28">
         <v>12.99</v>
       </c>
       <c r="L28">
-        <f>K28*E28</f>
+        <f t="shared" si="3"/>
         <v>12.99</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1731,18 +1743,18 @@
         <v>13.2</v>
       </c>
       <c r="J29">
-        <f>I29*E29</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K29">
         <v>12.99</v>
       </c>
       <c r="L29">
-        <f>K29*E29</f>
+        <f t="shared" si="3"/>
         <v>12.99</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1771,18 +1783,18 @@
         <v>5.54</v>
       </c>
       <c r="J30">
-        <f>I30*E30</f>
+        <f t="shared" si="2"/>
         <v>5.54</v>
       </c>
       <c r="K30">
         <v>3.49</v>
       </c>
       <c r="L30">
-        <f>K30*E30</f>
+        <f t="shared" si="3"/>
         <v>3.49</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1811,18 +1823,18 @@
         <v>5.54</v>
       </c>
       <c r="J31">
-        <f>I31*E31</f>
+        <f t="shared" si="2"/>
         <v>5.54</v>
       </c>
       <c r="K31">
         <v>3.49</v>
       </c>
       <c r="L31">
-        <f>K31*E31</f>
+        <f t="shared" si="3"/>
         <v>3.49</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1851,18 +1863,18 @@
         <v>12.2</v>
       </c>
       <c r="J32">
-        <f>I32*E32</f>
+        <f t="shared" si="2"/>
         <v>12.2</v>
       </c>
       <c r="K32">
         <v>9.99</v>
       </c>
       <c r="L32">
-        <f>K32*E32</f>
+        <f t="shared" si="3"/>
         <v>9.99</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1891,18 +1903,18 @@
         <v>3.32</v>
       </c>
       <c r="J33">
-        <f>I33*E33</f>
+        <f t="shared" si="2"/>
         <v>3.32</v>
       </c>
       <c r="K33">
         <v>2.99</v>
       </c>
       <c r="L33">
-        <f>K33*E33</f>
+        <f t="shared" si="3"/>
         <v>2.99</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1931,18 +1943,18 @@
         <v>3.32</v>
       </c>
       <c r="J34">
-        <f>I34*E34</f>
+        <f t="shared" si="2"/>
         <v>3.32</v>
       </c>
       <c r="K34">
         <v>2.99</v>
       </c>
       <c r="L34">
-        <f>K34*E34</f>
+        <f t="shared" si="3"/>
         <v>2.99</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1971,18 +1983,18 @@
         <v>3.32</v>
       </c>
       <c r="J35">
-        <f>I35*E35</f>
+        <f t="shared" si="2"/>
         <v>3.32</v>
       </c>
       <c r="K35">
         <v>2.99</v>
       </c>
       <c r="L35">
-        <f>K35*E35</f>
+        <f t="shared" si="3"/>
         <v>2.99</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -2011,18 +2023,18 @@
         <v>3.32</v>
       </c>
       <c r="J36">
-        <f>I36*E36</f>
+        <f t="shared" si="2"/>
         <v>3.32</v>
       </c>
       <c r="K36">
         <v>2.99</v>
       </c>
       <c r="L36">
-        <f>K36*E36</f>
+        <f t="shared" si="3"/>
         <v>2.99</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2051,18 +2063,18 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="J37">
-        <f>I37*E37</f>
+        <f t="shared" si="2"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="K37">
         <v>3.69</v>
       </c>
       <c r="L37">
-        <f>K37*E37</f>
+        <f t="shared" si="3"/>
         <v>3.69</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -2091,18 +2103,18 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="J38">
-        <f>I38*E38</f>
+        <f t="shared" si="2"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="K38">
         <v>3.69</v>
       </c>
       <c r="L38">
-        <f>K38*E38</f>
+        <f t="shared" si="3"/>
         <v>3.69</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -2131,18 +2143,18 @@
         <v>4.43</v>
       </c>
       <c r="J39">
-        <f>I39*E39</f>
+        <f t="shared" si="2"/>
         <v>4.43</v>
       </c>
       <c r="K39">
         <v>3.99</v>
       </c>
       <c r="L39">
-        <f>K39*E39</f>
+        <f t="shared" si="3"/>
         <v>3.99</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -2171,18 +2183,18 @@
         <v>4.43</v>
       </c>
       <c r="J40">
-        <f>I40*E40</f>
+        <f t="shared" si="2"/>
         <v>4.43</v>
       </c>
       <c r="K40">
         <v>3.99</v>
       </c>
       <c r="L40">
-        <f>K40*E40</f>
+        <f t="shared" si="3"/>
         <v>3.99</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -2211,18 +2223,18 @@
         <v>14.2</v>
       </c>
       <c r="J41">
-        <f>I41*E41</f>
+        <f t="shared" si="2"/>
         <v>14.2</v>
       </c>
       <c r="K41">
         <v>12.79</v>
       </c>
       <c r="L41">
-        <f>K41*E41</f>
+        <f t="shared" si="3"/>
         <v>12.79</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -2251,18 +2263,18 @@
         <v>14.2</v>
       </c>
       <c r="J42">
-        <f>I42*E42</f>
+        <f t="shared" ref="J42:J73" si="4">I42*E42</f>
         <v>14.2</v>
       </c>
       <c r="K42">
         <v>12.79</v>
       </c>
       <c r="L42">
-        <f>K42*E42</f>
+        <f t="shared" ref="L42:L73" si="5">K42*E42</f>
         <v>12.79</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -2291,18 +2303,18 @@
         <v>14.2</v>
       </c>
       <c r="J43">
-        <f>I43*E43</f>
+        <f t="shared" si="4"/>
         <v>14.2</v>
       </c>
       <c r="K43">
         <v>12.79</v>
       </c>
       <c r="L43">
-        <f>K43*E43</f>
+        <f t="shared" si="5"/>
         <v>12.79</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -2328,15 +2340,15 @@
         <v>12.7</v>
       </c>
       <c r="J44">
-        <f>I44*E44</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L44">
-        <f>K44*E44</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2362,18 +2374,18 @@
         <v>11.8</v>
       </c>
       <c r="J45">
-        <f>I45*E45</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K45">
         <v>19.989999999999998</v>
       </c>
       <c r="L45">
-        <f>K45*E45</f>
+        <f t="shared" si="5"/>
         <v>19.989999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -2402,18 +2414,18 @@
         <v>16.739999999999998</v>
       </c>
       <c r="J46">
-        <f>I46*E46</f>
+        <f t="shared" si="4"/>
         <v>16.739999999999998</v>
       </c>
       <c r="K46">
         <v>14.69</v>
       </c>
       <c r="L46">
-        <f>K46*E46</f>
+        <f t="shared" si="5"/>
         <v>14.69</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -2439,18 +2451,18 @@
         <v>13.79</v>
       </c>
       <c r="J47">
-        <f>I47*E47</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K47">
         <v>11.99</v>
       </c>
       <c r="L47">
-        <f>K47*E47</f>
+        <f t="shared" si="5"/>
         <v>11.99</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -2476,15 +2488,15 @@
         <v>8.59</v>
       </c>
       <c r="J48">
-        <f>I48*E48</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L48">
-        <f>K48*E48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -2510,11 +2522,11 @@
         <v>20.5</v>
       </c>
       <c r="J49">
-        <f>I49*E49</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L49">
-        <f>K49*E49</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2544,12 +2556,15 @@
         <v>8.5</v>
       </c>
       <c r="J50">
-        <f>I50*E50</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>12.99</v>
       </c>
       <c r="L50">
-        <f>K50*E50</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>12.99</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2581,12 +2596,15 @@
         <v>16.559999999999999</v>
       </c>
       <c r="J51">
-        <f>I51*E51</f>
+        <f t="shared" si="4"/>
         <v>16.559999999999999</v>
       </c>
+      <c r="K51">
+        <v>14.34</v>
+      </c>
       <c r="L51">
-        <f>K51*E51</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>14.34</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2618,15 +2636,18 @@
         <v>16.559999999999999</v>
       </c>
       <c r="J52">
-        <f>I52*E52</f>
+        <f t="shared" si="4"/>
         <v>16.559999999999999</v>
       </c>
+      <c r="K52">
+        <v>14.34</v>
+      </c>
       <c r="L52">
-        <f>K52*E52</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>14.34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -2652,18 +2673,18 @@
         <v>12.39</v>
       </c>
       <c r="J53">
-        <f>I53*E53</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K53">
         <v>12.99</v>
       </c>
       <c r="L53">
-        <f>K53*E53</f>
+        <f t="shared" si="5"/>
         <v>12.99</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2690,15 +2711,15 @@
       </c>
       <c r="I54" s="3"/>
       <c r="J54">
-        <f>I54*E54</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L54">
-        <f>K54*E54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>8</v>
       </c>
@@ -2725,15 +2746,15 @@
       </c>
       <c r="I55" s="3"/>
       <c r="J55">
-        <f>I55*E55</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L55">
-        <f>K55*E55</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -2762,18 +2783,18 @@
         <v>7.2</v>
       </c>
       <c r="J56">
-        <f>I56*E56</f>
+        <f t="shared" si="4"/>
         <v>7.2</v>
       </c>
       <c r="K56">
         <v>6.49</v>
       </c>
       <c r="L56">
-        <f>K56*E56</f>
+        <f t="shared" si="5"/>
         <v>6.49</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -2799,15 +2820,15 @@
         <v>4.49</v>
       </c>
       <c r="J57">
-        <f>I57*E57</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L57">
-        <f>K57*E57</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2833,15 +2854,15 @@
         <v>8.7899999999999991</v>
       </c>
       <c r="J58">
-        <f>I58*E58</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L58">
-        <f>K58*E58</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -2867,18 +2888,18 @@
         <v>3.7</v>
       </c>
       <c r="J59">
-        <f>I59*E59</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K59">
         <v>5.99</v>
       </c>
       <c r="L59">
-        <f>K59*E59</f>
+        <f t="shared" si="5"/>
         <v>5.99</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -2904,18 +2925,18 @@
         <v>3.7</v>
       </c>
       <c r="J60">
-        <f>I60*E60</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K60">
         <v>5.99</v>
       </c>
       <c r="L60">
-        <f>K60*E60</f>
+        <f t="shared" si="5"/>
         <v>5.99</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -2941,18 +2962,18 @@
         <v>3.7</v>
       </c>
       <c r="J61">
-        <f>I61*E61</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K61">
         <v>5.99</v>
       </c>
       <c r="L61">
-        <f>K61*E61</f>
+        <f t="shared" si="5"/>
         <v>5.99</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -2978,15 +2999,15 @@
         <v>8.7899999999999991</v>
       </c>
       <c r="J62">
-        <f>I62*E62</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L62">
-        <f>K62*E62</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -3012,18 +3033,18 @@
         <v>2.59</v>
       </c>
       <c r="J63">
-        <f>I63*E63</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K63">
         <v>3.99</v>
       </c>
       <c r="L63">
-        <f>K63*E63</f>
+        <f t="shared" si="5"/>
         <v>3.99</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -3049,15 +3070,15 @@
         <v>6.05</v>
       </c>
       <c r="J64">
-        <f>I64*E64</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L64">
-        <f>K64*E64</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -3083,15 +3104,15 @@
         <v>17.2</v>
       </c>
       <c r="J65">
-        <f>I65*E65</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L65">
-        <f>K65*E65</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -3117,15 +3138,15 @@
         <v>25.5</v>
       </c>
       <c r="J66">
-        <f>I66*E66</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L66">
-        <f>K66*E66</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -3154,15 +3175,15 @@
         <v>14.2</v>
       </c>
       <c r="J67">
-        <f>I67*E67</f>
+        <f t="shared" si="4"/>
         <v>14.2</v>
       </c>
       <c r="L67">
-        <f>K67*E67</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -3191,15 +3212,15 @@
         <v>14.2</v>
       </c>
       <c r="J68">
-        <f>I68*E68</f>
+        <f t="shared" si="4"/>
         <v>14.2</v>
       </c>
       <c r="L68">
-        <f>K68*E68</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -3228,15 +3249,15 @@
         <v>14.2</v>
       </c>
       <c r="J69">
-        <f>I69*E69</f>
+        <f t="shared" si="4"/>
         <v>14.2</v>
       </c>
       <c r="L69">
-        <f>K69*E69</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -3262,15 +3283,15 @@
         <v>6.79</v>
       </c>
       <c r="J70">
-        <f>I70*E70</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L70">
-        <f>K70*E70</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -3296,18 +3317,18 @@
         <v>29.78</v>
       </c>
       <c r="J71">
-        <f>I71*E71</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K71">
         <v>34.99</v>
       </c>
       <c r="L71">
-        <f>K71*E71</f>
+        <f t="shared" si="5"/>
         <v>34.99</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -3333,18 +3354,18 @@
         <v>29.78</v>
       </c>
       <c r="J72">
-        <f>I72*E72</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K72">
         <v>34.99</v>
       </c>
       <c r="L72">
-        <f>K72*E72</f>
+        <f t="shared" si="5"/>
         <v>34.99</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -3373,18 +3394,18 @@
         <v>8.8699999999999992</v>
       </c>
       <c r="J73">
-        <f>I73*E73</f>
+        <f t="shared" si="4"/>
         <v>8.8699999999999992</v>
       </c>
       <c r="K73">
         <v>7.99</v>
       </c>
       <c r="L73">
-        <f>K73*E73</f>
+        <f t="shared" si="5"/>
         <v>7.99</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -3413,18 +3434,18 @@
         <v>8.8699999999999992</v>
       </c>
       <c r="J74">
-        <f>I74*E74</f>
+        <f t="shared" ref="J74:J105" si="6">I74*E74</f>
         <v>8.8699999999999992</v>
       </c>
       <c r="K74">
         <v>7.99</v>
       </c>
       <c r="L74">
-        <f>K74*E74</f>
+        <f t="shared" ref="L74:L105" si="7">K74*E74</f>
         <v>7.99</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -3453,18 +3474,18 @@
         <v>8.8699999999999992</v>
       </c>
       <c r="J75">
-        <f>I75*E75</f>
+        <f t="shared" si="6"/>
         <v>8.8699999999999992</v>
       </c>
       <c r="K75">
         <v>7.99</v>
       </c>
       <c r="L75">
-        <f>K75*E75</f>
+        <f t="shared" si="7"/>
         <v>7.99</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -3493,18 +3514,18 @@
         <v>8.8699999999999992</v>
       </c>
       <c r="J76">
-        <f>I76*E76</f>
+        <f t="shared" si="6"/>
         <v>8.8699999999999992</v>
       </c>
       <c r="K76">
         <v>7.99</v>
       </c>
       <c r="L76">
-        <f>K76*E76</f>
+        <f t="shared" si="7"/>
         <v>7.99</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -3533,18 +3554,18 @@
         <v>17.75</v>
       </c>
       <c r="J77">
-        <f>I77*E77</f>
+        <f t="shared" si="6"/>
         <v>17.75</v>
       </c>
       <c r="K77">
         <v>15.99</v>
       </c>
       <c r="L77">
-        <f>K77*E77</f>
+        <f t="shared" si="7"/>
         <v>15.99</v>
       </c>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -3573,18 +3594,18 @@
         <v>17.75</v>
       </c>
       <c r="J78">
-        <f>I78*E78</f>
+        <f t="shared" si="6"/>
         <v>17.75</v>
       </c>
       <c r="K78">
         <v>15.99</v>
       </c>
       <c r="L78">
-        <f>K78*E78</f>
+        <f t="shared" si="7"/>
         <v>15.99</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -3610,18 +3631,18 @@
         <v>8.59</v>
       </c>
       <c r="J79">
-        <f>I79*E79</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K79">
         <v>9.9700000000000006</v>
       </c>
       <c r="L79">
-        <f>K79*E79</f>
+        <f t="shared" si="7"/>
         <v>9.9700000000000006</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -3647,15 +3668,15 @@
         <v>6.79</v>
       </c>
       <c r="J80">
-        <f>I80*E80</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L80">
-        <f>K80*E80</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -3681,15 +3702,15 @@
         <v>37.5</v>
       </c>
       <c r="J81">
-        <f>I81*E81</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L81">
-        <f>K81*E81</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -3715,15 +3736,15 @@
         <v>27</v>
       </c>
       <c r="J82">
-        <f>I82*E82</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L82">
-        <f>K82*E82</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -3752,18 +3773,18 @@
         <v>18.760000000000002</v>
       </c>
       <c r="J83">
-        <f>I83*E83</f>
+        <f t="shared" si="6"/>
         <v>18.760000000000002</v>
       </c>
       <c r="K83">
         <v>16.989999999999998</v>
       </c>
       <c r="L83">
-        <f>K83*E83</f>
+        <f t="shared" si="7"/>
         <v>16.989999999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -3792,18 +3813,18 @@
         <v>7.76</v>
       </c>
       <c r="J84">
-        <f>I84*E84</f>
+        <f t="shared" si="6"/>
         <v>93.12</v>
       </c>
       <c r="K84">
         <v>6.99</v>
       </c>
       <c r="L84">
-        <f>K84*E84</f>
+        <f t="shared" si="7"/>
         <v>83.88</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -3829,15 +3850,15 @@
         <v>27</v>
       </c>
       <c r="J85">
-        <f>I85*E85</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L85">
-        <f>K85*E85</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H86">
         <f>SUM(H2:H85)</f>
         <v>891.8599999999999</v>
@@ -3852,19 +3873,44 @@
       </c>
       <c r="L86">
         <f>SUM(L2:L85)</f>
-        <v>553.80000000000018</v>
+        <v>663.39000000000033</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L86">
     <filterColumn colId="11">
       <filters>
-        <filter val="0"/>
+        <filter val="11,99"/>
+        <filter val="12"/>
+        <filter val="12,79"/>
+        <filter val="12,99"/>
+        <filter val="13,99"/>
+        <filter val="14,34"/>
+        <filter val="14,69"/>
+        <filter val="15,99"/>
+        <filter val="16,99"/>
+        <filter val="19,99"/>
+        <filter val="2,89"/>
+        <filter val="2,99"/>
+        <filter val="29,9"/>
+        <filter val="3,49"/>
+        <filter val="3,69"/>
+        <filter val="3,99"/>
+        <filter val="34,99"/>
+        <filter val="39,99"/>
+        <filter val="4,79"/>
+        <filter val="4,99"/>
+        <filter val="5,99"/>
+        <filter val="6,49"/>
+        <filter val="6,97"/>
+        <filter val="663,39"/>
+        <filter val="7,99"/>
+        <filter val="8,49"/>
+        <filter val="83,88"/>
+        <filter val="9,97"/>
+        <filter val="9,99"/>
       </filters>
     </filterColumn>
-    <sortState ref="A10:L85">
-      <sortCondition ref="D1:D86"/>
-    </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -3873,10 +3919,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:K31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4254,7 +4300,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4263,20 +4309,20 @@
         <v>15</v>
       </c>
       <c r="G11">
-        <v>3.99</v>
+        <v>29.9</v>
       </c>
       <c r="H11">
-        <v>3.99</v>
+        <v>29.9</v>
       </c>
       <c r="I11">
-        <v>8.49</v>
+        <v>39.99</v>
       </c>
       <c r="J11">
-        <v>8.49</v>
+        <v>39.99</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>10.090000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -4290,7 +4336,7 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4299,20 +4345,20 @@
         <v>15</v>
       </c>
       <c r="G12">
-        <v>3.99</v>
+        <v>7.55</v>
       </c>
       <c r="H12">
-        <v>3.99</v>
+        <v>7.55</v>
       </c>
       <c r="I12">
-        <v>8.49</v>
+        <v>6.97</v>
       </c>
       <c r="J12">
-        <v>8.49</v>
+        <v>6.97</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>-0.58000000000000007</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -4326,7 +4372,7 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4335,20 +4381,20 @@
         <v>15</v>
       </c>
       <c r="G13">
-        <v>13.15</v>
+        <v>7.55</v>
       </c>
       <c r="H13">
-        <v>13.15</v>
+        <v>7.55</v>
       </c>
       <c r="I13">
-        <v>12</v>
+        <v>6.97</v>
       </c>
       <c r="J13">
-        <v>12</v>
+        <v>6.97</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>-1.1500000000000004</v>
+        <v>-0.58000000000000007</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -4362,29 +4408,29 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G14">
-        <v>3.89</v>
+        <v>3.99</v>
       </c>
       <c r="H14">
-        <v>3.89</v>
+        <v>3.99</v>
       </c>
       <c r="I14">
-        <v>4.79</v>
+        <v>8.49</v>
       </c>
       <c r="J14">
-        <v>4.79</v>
+        <v>8.49</v>
       </c>
       <c r="K14">
         <f>J14-H14</f>
-        <v>0.89999999999999991</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -4398,29 +4444,29 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G15">
-        <v>13.2</v>
+        <v>3.99</v>
       </c>
       <c r="H15">
-        <v>13.2</v>
+        <v>3.99</v>
       </c>
       <c r="I15">
-        <v>12.99</v>
+        <v>8.49</v>
       </c>
       <c r="J15">
-        <v>12.99</v>
+        <v>8.49</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>-0.20999999999999908</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -4434,29 +4480,29 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>13.15</v>
+      </c>
+      <c r="H16">
+        <v>13.15</v>
+      </c>
+      <c r="I16">
         <v>12</v>
       </c>
-      <c r="G16">
-        <v>13.2</v>
-      </c>
-      <c r="H16">
-        <v>13.2</v>
-      </c>
-      <c r="I16">
-        <v>12.99</v>
-      </c>
       <c r="J16">
-        <v>12.99</v>
+        <v>12</v>
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>-0.20999999999999908</v>
+        <v>-1.1500000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -4470,29 +4516,29 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G17">
-        <v>3.85</v>
+        <v>8.99</v>
       </c>
       <c r="H17">
-        <v>3.85</v>
+        <v>8.99</v>
       </c>
       <c r="I17">
-        <v>3.49</v>
+        <v>13.99</v>
       </c>
       <c r="J17">
-        <v>3.49</v>
+        <v>13.99</v>
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>-0.35999999999999988</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -4506,29 +4552,29 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G18">
-        <v>3.85</v>
+        <v>3.89</v>
       </c>
       <c r="H18">
-        <v>3.85</v>
+        <v>3.89</v>
       </c>
       <c r="I18">
-        <v>3.49</v>
+        <v>4.79</v>
       </c>
       <c r="J18">
-        <v>3.49</v>
+        <v>4.79</v>
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>-0.35999999999999988</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -4542,29 +4588,29 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G19">
-        <v>10</v>
+        <v>13.2</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>13.2</v>
       </c>
       <c r="I19">
-        <v>9.99</v>
+        <v>12.99</v>
       </c>
       <c r="J19">
-        <v>9.99</v>
+        <v>12.99</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>-9.9999999999997868E-3</v>
+        <v>-0.20999999999999908</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -4578,29 +4624,29 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G20">
-        <v>3.35</v>
+        <v>13.2</v>
       </c>
       <c r="H20">
-        <v>3.35</v>
+        <v>13.2</v>
       </c>
       <c r="I20">
-        <v>2.99</v>
+        <v>12.99</v>
       </c>
       <c r="J20">
-        <v>2.99</v>
+        <v>12.99</v>
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>-0.35999999999999988</v>
+        <v>-0.20999999999999908</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -4614,7 +4660,7 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -4623,16 +4669,16 @@
         <v>15</v>
       </c>
       <c r="G21">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="H21">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="I21">
-        <v>2.99</v>
+        <v>3.49</v>
       </c>
       <c r="J21">
-        <v>2.99</v>
+        <v>3.49</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
@@ -4650,7 +4696,7 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -4659,16 +4705,16 @@
         <v>15</v>
       </c>
       <c r="G22">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="H22">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="I22">
-        <v>2.99</v>
+        <v>3.49</v>
       </c>
       <c r="J22">
-        <v>2.99</v>
+        <v>3.49</v>
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
@@ -4686,7 +4732,7 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -4695,20 +4741,20 @@
         <v>15</v>
       </c>
       <c r="G23">
-        <v>3.35</v>
+        <v>10</v>
       </c>
       <c r="H23">
-        <v>3.35</v>
+        <v>10</v>
       </c>
       <c r="I23">
-        <v>2.99</v>
+        <v>9.99</v>
       </c>
       <c r="J23">
-        <v>2.99</v>
+        <v>9.99</v>
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>-0.35999999999999988</v>
+        <v>-9.9999999999997868E-3</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -4722,7 +4768,7 @@
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -4737,14 +4783,14 @@
         <v>3.35</v>
       </c>
       <c r="I24">
-        <v>3.69</v>
+        <v>2.99</v>
       </c>
       <c r="J24">
-        <v>3.69</v>
+        <v>2.99</v>
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>0.33999999999999986</v>
+        <v>-0.35999999999999988</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -4758,7 +4804,7 @@
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -4773,14 +4819,14 @@
         <v>3.35</v>
       </c>
       <c r="I25">
-        <v>3.69</v>
+        <v>2.99</v>
       </c>
       <c r="J25">
-        <v>3.69</v>
+        <v>2.99</v>
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>0.33999999999999986</v>
+        <v>-0.35999999999999988</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -4794,7 +4840,7 @@
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -4803,20 +4849,20 @@
         <v>15</v>
       </c>
       <c r="G26">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="H26">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I26">
-        <v>3.99</v>
+        <v>2.99</v>
       </c>
       <c r="J26">
-        <v>3.99</v>
+        <v>2.99</v>
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>0.74000000000000021</v>
+        <v>-0.35999999999999988</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -4830,7 +4876,7 @@
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -4839,20 +4885,20 @@
         <v>15</v>
       </c>
       <c r="G27">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="H27">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I27">
-        <v>3.99</v>
+        <v>2.99</v>
       </c>
       <c r="J27">
-        <v>3.99</v>
+        <v>2.99</v>
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>0.74000000000000021</v>
+        <v>-0.35999999999999988</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -4866,7 +4912,7 @@
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -4875,20 +4921,20 @@
         <v>15</v>
       </c>
       <c r="G28">
-        <v>7.1</v>
+        <v>3.35</v>
       </c>
       <c r="H28">
-        <v>7.1</v>
+        <v>3.35</v>
       </c>
       <c r="I28">
-        <v>12.79</v>
+        <v>3.69</v>
       </c>
       <c r="J28">
-        <v>12.79</v>
+        <v>3.69</v>
       </c>
       <c r="K28">
         <f>J28-H28</f>
-        <v>5.6899999999999995</v>
+        <v>0.33999999999999986</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -4902,7 +4948,7 @@
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -4911,20 +4957,20 @@
         <v>15</v>
       </c>
       <c r="G29">
-        <v>7.1</v>
+        <v>3.35</v>
       </c>
       <c r="H29">
-        <v>7.1</v>
+        <v>3.35</v>
       </c>
       <c r="I29">
-        <v>12.79</v>
+        <v>3.69</v>
       </c>
       <c r="J29">
-        <v>12.79</v>
+        <v>3.69</v>
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>5.6899999999999995</v>
+        <v>0.33999999999999986</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -4938,7 +4984,7 @@
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -4947,20 +4993,20 @@
         <v>15</v>
       </c>
       <c r="G30">
-        <v>7.1</v>
+        <v>3.25</v>
       </c>
       <c r="H30">
-        <v>7.1</v>
+        <v>3.25</v>
       </c>
       <c r="I30">
-        <v>12.79</v>
+        <v>3.99</v>
       </c>
       <c r="J30">
-        <v>12.79</v>
+        <v>3.99</v>
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>5.6899999999999995</v>
+        <v>0.74000000000000021</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -4974,7 +5020,7 @@
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -4983,20 +5029,20 @@
         <v>15</v>
       </c>
       <c r="G31">
-        <v>11.8</v>
+        <v>3.25</v>
       </c>
       <c r="H31">
-        <v>11.8</v>
+        <v>3.25</v>
       </c>
       <c r="I31">
-        <v>19.989999999999998</v>
+        <v>3.99</v>
       </c>
       <c r="J31">
-        <v>19.989999999999998</v>
+        <v>3.99</v>
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>8.1899999999999977</v>
+        <v>0.74000000000000021</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -5010,29 +5056,29 @@
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="G32">
-        <v>12.6</v>
+        <v>7.1</v>
       </c>
       <c r="H32">
-        <v>12.6</v>
+        <v>7.1</v>
       </c>
       <c r="I32">
-        <v>14.69</v>
+        <v>12.79</v>
       </c>
       <c r="J32">
-        <v>14.69</v>
+        <v>12.79</v>
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>2.09</v>
+        <v>5.6899999999999995</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -5046,7 +5092,7 @@
         <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -5055,20 +5101,20 @@
         <v>15</v>
       </c>
       <c r="G33">
-        <v>13.79</v>
+        <v>7.1</v>
       </c>
       <c r="H33">
-        <v>13.79</v>
+        <v>7.1</v>
       </c>
       <c r="I33">
-        <v>11.99</v>
+        <v>12.79</v>
       </c>
       <c r="J33">
-        <v>11.99</v>
+        <v>12.79</v>
       </c>
       <c r="K33">
         <f>J33-H33</f>
-        <v>-1.7999999999999989</v>
+        <v>5.6899999999999995</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -5082,7 +5128,7 @@
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -5091,20 +5137,20 @@
         <v>15</v>
       </c>
       <c r="G34">
-        <v>12.39</v>
+        <v>7.1</v>
       </c>
       <c r="H34">
-        <v>12.39</v>
+        <v>7.1</v>
       </c>
       <c r="I34">
-        <v>12.99</v>
+        <v>12.79</v>
       </c>
       <c r="J34">
-        <v>12.99</v>
+        <v>12.79</v>
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>0.59999999999999964</v>
+        <v>5.6899999999999995</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -5118,29 +5164,29 @@
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G35">
-        <v>7</v>
+        <v>11.8</v>
       </c>
       <c r="H35">
-        <v>7</v>
+        <v>11.8</v>
       </c>
       <c r="I35">
-        <v>6.49</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="J35">
-        <v>6.49</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>-0.50999999999999979</v>
+        <v>8.1899999999999977</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -5154,29 +5200,29 @@
         <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="G36">
-        <v>3.7</v>
+        <v>12.6</v>
       </c>
       <c r="H36">
-        <v>3.7</v>
+        <v>12.6</v>
       </c>
       <c r="I36">
-        <v>5.99</v>
+        <v>14.69</v>
       </c>
       <c r="J36">
-        <v>5.99</v>
+        <v>14.69</v>
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
-        <v>2.29</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -5190,7 +5236,7 @@
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -5199,20 +5245,20 @@
         <v>15</v>
       </c>
       <c r="G37">
-        <v>3.7</v>
+        <v>13.79</v>
       </c>
       <c r="H37">
-        <v>3.7</v>
+        <v>13.79</v>
       </c>
       <c r="I37">
-        <v>5.99</v>
+        <v>11.99</v>
       </c>
       <c r="J37">
-        <v>5.99</v>
+        <v>11.99</v>
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>2.29</v>
+        <v>-1.7999999999999989</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -5226,7 +5272,7 @@
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -5235,20 +5281,20 @@
         <v>15</v>
       </c>
       <c r="G38">
-        <v>3.7</v>
+        <v>8.5</v>
       </c>
       <c r="H38">
-        <v>3.7</v>
+        <v>8.5</v>
       </c>
       <c r="I38">
-        <v>5.99</v>
+        <v>12.99</v>
       </c>
       <c r="J38">
-        <v>5.99</v>
+        <v>12.99</v>
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>2.29</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -5262,29 +5308,29 @@
         <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G39">
-        <v>2.59</v>
+        <v>11.9</v>
       </c>
       <c r="H39">
-        <v>2.59</v>
+        <v>11.9</v>
       </c>
       <c r="I39">
-        <v>3.99</v>
+        <v>14.34</v>
       </c>
       <c r="J39">
-        <v>3.99</v>
+        <v>14.34</v>
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>1.4000000000000004</v>
+        <v>2.4399999999999995</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -5298,29 +5344,29 @@
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G40">
-        <v>29.78</v>
+        <v>11.9</v>
       </c>
       <c r="H40">
-        <v>29.78</v>
+        <v>11.9</v>
       </c>
       <c r="I40">
-        <v>34.99</v>
+        <v>14.34</v>
       </c>
       <c r="J40">
-        <v>34.99</v>
+        <v>14.34</v>
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>5.2100000000000009</v>
+        <v>2.4399999999999995</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -5334,29 +5380,29 @@
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G41">
-        <v>29.78</v>
+        <v>12.39</v>
       </c>
       <c r="H41">
-        <v>29.78</v>
+        <v>12.39</v>
       </c>
       <c r="I41">
-        <v>34.99</v>
+        <v>12.99</v>
       </c>
       <c r="J41">
-        <v>34.99</v>
+        <v>12.99</v>
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
-        <v>5.2100000000000009</v>
+        <v>0.59999999999999964</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -5370,7 +5416,7 @@
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -5379,20 +5425,20 @@
         <v>12</v>
       </c>
       <c r="G42">
-        <v>5.79</v>
+        <v>7</v>
       </c>
       <c r="H42">
-        <v>5.79</v>
+        <v>7</v>
       </c>
       <c r="I42">
-        <v>7.99</v>
+        <v>6.49</v>
       </c>
       <c r="J42">
-        <v>7.99</v>
+        <v>6.49</v>
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>-0.50999999999999979</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -5406,29 +5452,29 @@
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G43">
-        <v>5.79</v>
+        <v>3.7</v>
       </c>
       <c r="H43">
-        <v>5.79</v>
+        <v>3.7</v>
       </c>
       <c r="I43">
-        <v>7.99</v>
+        <v>5.99</v>
       </c>
       <c r="J43">
-        <v>7.99</v>
+        <v>5.99</v>
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -5442,29 +5488,29 @@
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G44">
-        <v>5.79</v>
+        <v>3.7</v>
       </c>
       <c r="H44">
-        <v>5.79</v>
+        <v>3.7</v>
       </c>
       <c r="I44">
-        <v>7.99</v>
+        <v>5.99</v>
       </c>
       <c r="J44">
-        <v>7.99</v>
+        <v>5.99</v>
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -5478,29 +5524,29 @@
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G45">
-        <v>5.79</v>
+        <v>3.7</v>
       </c>
       <c r="H45">
-        <v>5.79</v>
+        <v>3.7</v>
       </c>
       <c r="I45">
-        <v>7.99</v>
+        <v>5.99</v>
       </c>
       <c r="J45">
-        <v>7.99</v>
+        <v>5.99</v>
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -5514,29 +5560,29 @@
         <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G46">
-        <v>13.9</v>
+        <v>2.59</v>
       </c>
       <c r="H46">
-        <v>13.9</v>
+        <v>2.59</v>
       </c>
       <c r="I46">
-        <v>15.99</v>
+        <v>3.99</v>
       </c>
       <c r="J46">
-        <v>15.99</v>
+        <v>3.99</v>
       </c>
       <c r="K46">
         <f>J46-H46</f>
-        <v>2.09</v>
+        <v>1.4000000000000004</v>
       </c>
       <c r="L46" t="s">
         <v>73</v>
@@ -5553,29 +5599,29 @@
         <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G47">
-        <v>13.9</v>
+        <v>29.78</v>
       </c>
       <c r="H47">
-        <v>13.9</v>
+        <v>29.78</v>
       </c>
       <c r="I47">
-        <v>15.99</v>
+        <v>34.99</v>
       </c>
       <c r="J47">
-        <v>15.99</v>
+        <v>34.99</v>
       </c>
       <c r="K47">
         <f t="shared" ref="K47:K50" si="1">J47-H47</f>
-        <v>2.09</v>
+        <v>5.2100000000000009</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -5589,32 +5635,32 @@
         <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="G48">
-        <v>8.59</v>
+        <v>29.78</v>
       </c>
       <c r="H48">
-        <v>8.59</v>
+        <v>29.78</v>
       </c>
       <c r="I48">
-        <v>9.9700000000000006</v>
+        <v>34.99</v>
       </c>
       <c r="J48">
-        <v>9.9700000000000006</v>
+        <v>34.99</v>
       </c>
       <c r="K48">
         <f t="shared" si="1"/>
-        <v>1.3800000000000008</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5.2100000000000009</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -5625,32 +5671,32 @@
         <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G49">
-        <v>9.49</v>
+        <v>5.79</v>
       </c>
       <c r="H49">
-        <v>9.49</v>
+        <v>5.79</v>
       </c>
       <c r="I49">
-        <v>16.989999999999998</v>
+        <v>7.99</v>
       </c>
       <c r="J49">
-        <v>16.989999999999998</v>
+        <v>7.99</v>
       </c>
       <c r="K49">
         <f t="shared" si="1"/>
-        <v>7.4999999999999982</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -5661,43 +5707,295 @@
         <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
         <v>12</v>
       </c>
-      <c r="F50" t="s">
-        <v>15</v>
-      </c>
       <c r="G50">
-        <v>5.89</v>
+        <v>5.79</v>
       </c>
       <c r="H50">
-        <v>70.680000000000007</v>
+        <v>5.79</v>
       </c>
       <c r="I50">
-        <v>6.99</v>
+        <v>7.99</v>
       </c>
       <c r="J50">
-        <v>83.88</v>
+        <v>7.99</v>
       </c>
       <c r="K50">
         <f t="shared" si="1"/>
-        <v>13.199999999999989</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51">
+        <v>5.79</v>
+      </c>
       <c r="H51">
-        <f>SUM(H2:H50)</f>
-        <v>454.29999999999995</v>
+        <v>5.79</v>
+      </c>
+      <c r="I51">
+        <v>7.99</v>
       </c>
       <c r="J51">
-        <f>SUM(J2:J50)</f>
-        <v>553.80000000000018</v>
+        <v>7.99</v>
       </c>
       <c r="K51">
         <f>J51-H51</f>
-        <v>99.500000000000227</v>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52">
+        <v>5.79</v>
+      </c>
+      <c r="H52">
+        <v>5.79</v>
+      </c>
+      <c r="I52">
+        <v>7.99</v>
+      </c>
+      <c r="J52">
+        <v>7.99</v>
+      </c>
+      <c r="K52">
+        <f t="shared" ref="K52:K57" si="2">J52-H52</f>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53">
+        <v>13.9</v>
+      </c>
+      <c r="H53">
+        <v>13.9</v>
+      </c>
+      <c r="I53">
+        <v>15.99</v>
+      </c>
+      <c r="J53">
+        <v>15.99</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="2"/>
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54">
+        <v>13.9</v>
+      </c>
+      <c r="H54">
+        <v>13.9</v>
+      </c>
+      <c r="I54">
+        <v>15.99</v>
+      </c>
+      <c r="J54">
+        <v>15.99</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="2"/>
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>45</v>
+      </c>
+      <c r="G55">
+        <v>8.59</v>
+      </c>
+      <c r="H55">
+        <v>8.59</v>
+      </c>
+      <c r="I55">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="J55">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="2"/>
+        <v>1.3800000000000008</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56">
+        <v>9.49</v>
+      </c>
+      <c r="H56">
+        <v>9.49</v>
+      </c>
+      <c r="I56">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="J56">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="2"/>
+        <v>7.4999999999999982</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>67</v>
+      </c>
+      <c r="E57">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57">
+        <v>5.89</v>
+      </c>
+      <c r="H57">
+        <v>70.680000000000007</v>
+      </c>
+      <c r="I57">
+        <v>6.99</v>
+      </c>
+      <c r="J57">
+        <v>83.88</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="2"/>
+        <v>13.199999999999989</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <f>SUM(H2:H57)</f>
+        <v>540.5899999999998</v>
+      </c>
+      <c r="J58">
+        <f>SUM(J2:J57)</f>
+        <v>663.39000000000033</v>
+      </c>
+      <c r="L58">
+        <f>J58-H58</f>
+        <v>122.80000000000052</v>
       </c>
     </row>
   </sheetData>

--- a/notas_raspadas.xlsx
+++ b/notas_raspadas.xlsx
@@ -16,7 +16,12 @@
     <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha1!$A$1:$L$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$86</definedName>
+    <definedName name="_xlchart.0" hidden="1">Planilha1!$K$1</definedName>
+    <definedName name="_xlchart.1" hidden="1">Planilha1!$K$2:$K$58</definedName>
+    <definedName name="_xlchart.2" hidden="1">Planilha1!$K$1</definedName>
+    <definedName name="_xlchart.3" hidden="1">Planilha1!$K$2:$K$58</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -3919,10 +3924,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:P58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3930,7 +3935,7 @@
     <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3965,7 +3970,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -4001,7 +4006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -4037,7 +4042,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -4073,7 +4078,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4109,7 +4114,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -4145,7 +4150,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4181,7 +4186,7 @@
         <v>0.90000000000000013</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4217,7 +4222,7 @@
         <v>0.90000000000000013</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4253,7 +4258,7 @@
         <v>0.90000000000000013</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -4289,7 +4294,7 @@
         <v>-4.91</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4325,7 +4330,7 @@
         <v>10.090000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -4361,7 +4366,7 @@
         <v>-0.58000000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -4397,7 +4402,7 @@
         <v>-0.58000000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -4433,7 +4438,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -4469,7 +4474,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -4504,6 +4509,16 @@
         <f t="shared" si="0"/>
         <v>-1.1500000000000004</v>
       </c>
+      <c r="N16">
+        <v>119</v>
+      </c>
+      <c r="O16">
+        <v>373</v>
+      </c>
+      <c r="P16">
+        <f>O16+N16</f>
+        <v>492</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -4681,7 +4696,7 @@
         <v>3.49</v>
       </c>
       <c r="K21">
-        <f t="shared" si="0"/>
+        <f>J21-H21</f>
         <v>-0.35999999999999988</v>
       </c>
     </row>
@@ -5999,6 +6014,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L58"/>
   <conditionalFormatting sqref="K1:K1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
